--- a/src/asset/files/SampleLoanDetailsFile.xlsx
+++ b/src/asset/files/SampleLoanDetailsFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pramod.Patil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Oct_2023\Projects\projects_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,81 +23,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Subhajit Chakraborty</author>
-  </authors>
-  <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Male/
-Female) (As
-per Aadhar)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(SC/ST/
-Others)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gram
-Panchayat/
-Nagar
-Palika/ Maha
-Nagar Palika</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>(Owner/
-Tenant/
-Lease</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>BRANCH_NAME</t>
   </si>
@@ -255,20 +182,71 @@
     <t>TOTAL_NPA_AMOUNT_ASON_30SEPT2025</t>
   </si>
   <si>
+    <t>PRINCIPAL_AMOUNT_ASON_30SEPT2025_25OFNPA</t>
+  </si>
+  <si>
     <t>INTEREST_RECEIVABLE_ASON_30SEPT2025_25OFNPA</t>
   </si>
   <si>
     <t>PARENT_BR_ID</t>
   </si>
   <si>
-    <t>PRINCIPAL_AMOUNT_ASON_30SEPT2025_25OFNPA</t>
+    <t>MANDARNE</t>
+  </si>
+  <si>
+    <t>HDFC0CPDCCB</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>MANDARNE TAL JUNNARJUNNAR PUNEDISTRICT PUNE</t>
+  </si>
+  <si>
+    <t>PUNE</t>
+  </si>
+  <si>
+    <t>JUNNAR</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>025001700016934</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>Medium Term</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>COW</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2xxxxxxxx361</t>
+  </si>
+  <si>
+    <t>1XXXXXXX4</t>
+  </si>
+  <si>
+    <t>35XXXXXXXXX21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,20 +255,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF5B5B5B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,6 +313,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -346,19 +344,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -368,9 +368,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -647,252 +668,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="90" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:56" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AI1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="7" t="s">
+      <c r="AW1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AX1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AY1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BA1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="W2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AJ2" s="1"/>
-      <c r="AW2" s="1"/>
-      <c r="BJ2" s="2"/>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="8">
+        <v>440256</v>
+      </c>
+      <c r="D2" s="8">
+        <v>444</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="7">
+        <v>412409</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" s="7">
+        <v>102000</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" s="12">
+        <v>44545</v>
+      </c>
+      <c r="X2" s="7">
+        <v>102000</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>60</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>45822</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>32292</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>32292</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>5665</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>37957</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8">
+        <v>37392</v>
+      </c>
+      <c r="AR2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" s="8">
+        <v>37392</v>
+      </c>
+      <c r="AT2" s="8">
+        <v>7371</v>
+      </c>
+      <c r="AU2" s="8">
+        <v>44763</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/asset/files/SampleLoanDetailsFile.xlsx
+++ b/src/asset/files/SampleLoanDetailsFile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work_Oct_2023\Projects\projects_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subhajit.chakraborty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>BRANCH_NAME</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>TALUKA</t>
-  </si>
-  <si>
-    <t>VILLAGE</t>
   </si>
   <si>
     <t>LOCAL_GOVERNING_BODY</t>
@@ -669,18 +666,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="29" max="29" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +714,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -735,7 +732,7 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -765,7 +762,7 @@
       <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="AD1" s="5" t="s">
@@ -804,7 +801,7 @@
       <c r="AO1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="6" t="s">
@@ -841,21 +838,18 @@
         <v>52</v>
       </c>
       <c r="BB1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="8">
         <v>440256</v>
@@ -864,123 +858,122 @@
         <v>444</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="7">
+        <v>412409</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="7">
-        <v>412409</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="Q2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="7">
+        <v>102000</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="12">
+        <v>44545</v>
+      </c>
+      <c r="W2" s="7">
+        <v>102000</v>
+      </c>
+      <c r="X2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="U2" s="7">
-        <v>102000</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="W2" s="12">
-        <v>44545</v>
-      </c>
-      <c r="X2" s="7">
-        <v>102000</v>
-      </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="8">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>45822</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>32292</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="8">
-        <v>60</v>
-      </c>
-      <c r="AC2" s="14">
-        <v>45822</v>
-      </c>
-      <c r="AD2" s="8">
+      <c r="AE2" s="8">
         <v>32292</v>
       </c>
-      <c r="AE2" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="AF2" s="8">
-        <v>32292</v>
+        <v>5665</v>
       </c>
       <c r="AG2" s="8">
-        <v>5665</v>
-      </c>
-      <c r="AH2" s="8">
         <v>37957</v>
       </c>
-      <c r="AI2" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="AH2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
       <c r="AK2" s="8"/>
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8"/>
       <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8">
+      <c r="AP2" s="8">
         <v>37392</v>
       </c>
-      <c r="AR2" s="8" t="s">
-        <v>67</v>
+      <c r="AQ2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR2" s="8">
+        <v>37392</v>
       </c>
       <c r="AS2" s="8">
-        <v>37392</v>
+        <v>7371</v>
       </c>
       <c r="AT2" s="8">
-        <v>7371</v>
-      </c>
-      <c r="AU2" s="8">
         <v>44763</v>
       </c>
-      <c r="AV2" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="AU2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV2" s="8"/>
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
       <c r="AY2" s="8"/>
       <c r="AZ2" s="8"/>
       <c r="BA2" s="8"/>
       <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="10">
+      <c r="BC2" s="10">
         <v>0</v>
       </c>
     </row>
